--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7912223333333334</v>
+        <v>1.022883666666667</v>
       </c>
       <c r="H2">
-        <v>2.373667</v>
+        <v>3.068651</v>
       </c>
       <c r="I2">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="J2">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>6.282623661785445</v>
+        <v>16.11618647291878</v>
       </c>
       <c r="R2">
-        <v>56.543612956069</v>
+        <v>145.045678256269</v>
       </c>
       <c r="S2">
-        <v>0.02471973295836369</v>
+        <v>0.05135694420360758</v>
       </c>
       <c r="T2">
-        <v>0.02471973295836369</v>
+        <v>0.05135694420360756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7912223333333334</v>
+        <v>1.022883666666667</v>
       </c>
       <c r="H3">
-        <v>2.373667</v>
+        <v>3.068651</v>
       </c>
       <c r="I3">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="J3">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
-        <v>21.32648597939044</v>
+        <v>27.57065019109356</v>
       </c>
       <c r="R3">
-        <v>191.938373814514</v>
+        <v>248.135851719842</v>
       </c>
       <c r="S3">
-        <v>0.08391160552198339</v>
+        <v>0.08785852322449177</v>
       </c>
       <c r="T3">
-        <v>0.08391160552198339</v>
+        <v>0.08785852322449172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7912223333333334</v>
+        <v>1.022883666666667</v>
       </c>
       <c r="H4">
-        <v>2.373667</v>
+        <v>3.068651</v>
       </c>
       <c r="I4">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="J4">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
-        <v>4.915555516549222</v>
+        <v>6.354776955408778</v>
       </c>
       <c r="R4">
-        <v>44.23999964894301</v>
+        <v>57.192992598679</v>
       </c>
       <c r="S4">
-        <v>0.01934084010955643</v>
+        <v>0.02025056771797162</v>
       </c>
       <c r="T4">
-        <v>0.01934084010955643</v>
+        <v>0.02025056771797161</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.085674</v>
       </c>
       <c r="I5">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="J5">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>8.167164343168668</v>
+        <v>16.20558922426734</v>
       </c>
       <c r="R5">
-        <v>73.50447908851801</v>
+        <v>145.850303018406</v>
       </c>
       <c r="S5">
-        <v>0.0321346832881638</v>
+        <v>0.05164184113753001</v>
       </c>
       <c r="T5">
-        <v>0.0321346832881638</v>
+        <v>0.05164184113753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.085674</v>
       </c>
       <c r="I6">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="J6">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>27.72359530547867</v>
@@ -818,10 +818,10 @@
         <v>249.512357749308</v>
       </c>
       <c r="S6">
-        <v>0.1090817959964227</v>
+        <v>0.08834590860681465</v>
       </c>
       <c r="T6">
-        <v>0.1090817959964227</v>
+        <v>0.08834590860681463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.085674</v>
       </c>
       <c r="I7">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="J7">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
         <v>6.390029373527334</v>
@@ -880,10 +880,10 @@
         <v>57.510264361746</v>
       </c>
       <c r="S7">
-        <v>0.0251423335557243</v>
+        <v>0.02036290548927993</v>
       </c>
       <c r="T7">
-        <v>0.02514233355572431</v>
+        <v>0.02036290548927993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.088964</v>
       </c>
       <c r="I8">
-        <v>0.7056690085697858</v>
+        <v>0.6801833096203046</v>
       </c>
       <c r="J8">
-        <v>0.7056690085697859</v>
+        <v>0.6801833096203045</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N8">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O8">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P8">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q8">
-        <v>34.64388009550534</v>
+        <v>68.74166679799067</v>
       </c>
       <c r="R8">
-        <v>311.794920859548</v>
+        <v>618.6750011819161</v>
       </c>
       <c r="S8">
-        <v>0.1363104828021942</v>
+        <v>0.2190569060577525</v>
       </c>
       <c r="T8">
-        <v>0.1363104828021942</v>
+        <v>0.2190569060577524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.088964</v>
       </c>
       <c r="I9">
-        <v>0.7056690085697858</v>
+        <v>0.6801833096203046</v>
       </c>
       <c r="J9">
-        <v>0.7056690085697859</v>
+        <v>0.6801833096203045</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>80.861542</v>
       </c>
       <c r="O9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q9">
         <v>117.5993124691653</v>
@@ -1004,10 +1004,10 @@
         <v>1058.393812222488</v>
       </c>
       <c r="S9">
-        <v>0.4627085365636552</v>
+        <v>0.3747500278065302</v>
       </c>
       <c r="T9">
-        <v>0.4627085365636553</v>
+        <v>0.3747500278065301</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.088964</v>
       </c>
       <c r="I10">
-        <v>0.7056690085697858</v>
+        <v>0.6801833096203046</v>
       </c>
       <c r="J10">
-        <v>0.7056690085697859</v>
+        <v>0.6801833096203045</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.637829</v>
       </c>
       <c r="O10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q10">
         <v>27.10554142435067</v>
@@ -1066,10 +1066,10 @@
         <v>243.949872819156</v>
       </c>
       <c r="S10">
-        <v>0.1066499892039364</v>
+        <v>0.086376375756022</v>
       </c>
       <c r="T10">
-        <v>0.1066499892039365</v>
+        <v>0.08637637575602196</v>
       </c>
     </row>
   </sheetData>
